--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dean\Documents\Masters Thesis\Gam705-Final-Major-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FE294A2-BF54-42F6-B22C-607DCACFB2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCFC42E-6D7D-4C88-9C3D-D03974E9D470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Q1</t>
   </si>
@@ -196,12 +196,57 @@
   </si>
   <si>
     <t>1 Being not realtable</t>
+  </si>
+  <si>
+    <t>Extro</t>
+  </si>
+  <si>
+    <t>Introversion - Extroversion</t>
+  </si>
+  <si>
+    <t>Pleasantness - Agreeblness</t>
+  </si>
+  <si>
+    <t>Conscientiouness - Dependability</t>
+  </si>
+  <si>
+    <t>Emotional Stabilty</t>
+  </si>
+  <si>
+    <t>Intellect - Sophistication</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Not nice</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t>undepe</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>unsop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,6 +424,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,11 +738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +751,7 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>50</v>
@@ -714,7 +760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -738,7 +784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -747,7 +793,7 @@
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,7 +802,7 @@
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -765,7 +811,7 @@
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -774,7 +820,7 @@
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -783,7 +829,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -792,7 +838,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -801,7 +847,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -810,7 +856,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -819,7 +865,7 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -828,7 +874,7 @@
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -836,8 +882,11 @@
         <v>17</v>
       </c>
       <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -845,8 +894,15 @@
         <v>18</v>
       </c>
       <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <f>C2+C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -854,8 +910,15 @@
         <v>19</v>
       </c>
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <f>C3+C4+C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -863,8 +926,11 @@
         <v>20</v>
       </c>
       <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -872,8 +938,15 @@
         <v>21</v>
       </c>
       <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <f>C7+C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -881,8 +954,15 @@
         <v>22</v>
       </c>
       <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <f>C9+C10+C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -890,8 +970,11 @@
         <v>23</v>
       </c>
       <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -899,8 +982,15 @@
         <v>24</v>
       </c>
       <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -908,8 +998,15 @@
         <v>25</v>
       </c>
       <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <f>C12+C13+C15+C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -917,8 +1014,11 @@
         <v>26</v>
       </c>
       <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -926,8 +1026,15 @@
         <v>27</v>
       </c>
       <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <f>C17+C19+C20+C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -935,8 +1042,15 @@
         <v>28</v>
       </c>
       <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -944,9 +1058,31 @@
         <v>29</v>
       </c>
       <c r="C26" s="9"/>
+      <c r="F26" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <f>C22+C23+C24+C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28">
+        <f>C26</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>